--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,93 +448,1163 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10.160.167.202</t>
+          <t>10.160.13.201</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100233</v>
+        <v>424414</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10.160.167.203</t>
+          <t>10.160.13.202</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>111712</v>
+        <v>142091</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10.160.167.204</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>43339</v>
+          <t>10.160.13.203</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10.160.167.205</t>
+          <t>10.160.13.204</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>117842</v>
+        <v>192467</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>10.160.167.206</t>
+          <t>10.160.13.205</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>117748</v>
+        <v>109207</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10.160.167.207</t>
+          <t>10.160.13.206</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>168522</v>
+        <v>21784</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10.160.167.208</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>309791</v>
+          <t>10.160.13.207</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10.160.167.209</t>
+          <t>10.160.13.208</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>87393</v>
+        <v>159519</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10.160.167.999</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
+          <t>10.160.13.210</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>22408</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10.160.13.211</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10110</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>10.160.167.202</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>102329</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>10.160.167.203</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>115126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>10.160.167.204</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Offline</t>
         </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>10.160.167.205</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>119499</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>10.160.167.206</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>119853</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>10.160.167.207</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>174506</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>10.160.167.208</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>315106</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>10.160.167.209</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>94521</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>10.160.179.147</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>10.160.179.148</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>268871</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>10.160.179.149</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>227784</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>10.160.183.201</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>17869</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>10.160.183.202</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>68086</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>10.160.184.199</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>10.160.184.200</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>27893</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>10.160.38.204</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>128172</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>10.160.38.207</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>139550</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>10.160.38.209</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>684837</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>10.160.38.210</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>209609</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>10.160.38.211</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>111664</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>10.160.38.212</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>225394</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>10.160.38.213</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>135740</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>10.160.38.214</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>116821</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>10.160.43.203</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>255013</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>10.160.43.204</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>10.160.43.205</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>160105</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>10.160.43.206</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>359342</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>10.160.43.207</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>35501</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>10.160.43.208</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>6824</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>10.160.43.209</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>7594</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>10.160.57.202</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>144153</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>10.160.57.203</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>94873</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>10.160.57.204</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>339120</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>10.160.57.205</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>10892</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>10.160.57.208</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>49576</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>10.160.57.209</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>111695</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>10.160.57.210</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>109042</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>10.160.57.211</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>201542</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>10.160.57.212</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>81291</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>10.160.57.213</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>113028</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>10.160.57.214</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>37676</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>10.160.66.201</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>39068</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>10.160.66.202</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>3507</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>10.160.66.203</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>214290</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>10.160.66.204</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>54878</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>10.160.66.205</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>261918</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>10.160.66.206</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>57101</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>10.160.66.208</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>56017</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>10.160.66.211</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>324776</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>10.160.66.212</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>52810</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>10.160.66.213</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>118867</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>10.20.0.104</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>10.160.179.109</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>303444</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>10.160.179.146</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>605757</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>10.160.179.139</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>81143</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>10.20.0.115</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>10.20.0.150</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>10.160.179.111</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>46244</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>10.160.179.134</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>37844</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>10.160.179.110</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>82174</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>10.160.179.120</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>927921</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>10.160.179.135</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>10.160.179.141</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>144923</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>10.160.179.130</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>10.160.179.133</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>104654</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>10.160.179.123</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>10.160.179.128</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>32196</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>10.160.179.119</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>412880</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>10.20.0.227</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>10.160.179.127</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>187785</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>10.160.179.112</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>58164</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>10.160.179.143</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>45367</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>10.20.0.234</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>10.160.179.113</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>56251</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>10.160.179.108</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>129332</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>10.160.179.144</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>100865</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>10.20.0.83</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>10.160.179.142</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>96383</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>10.160.179.118</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>90527</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>10.160.179.103</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>56382</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>10.160.179.104</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>26603</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>10.160.179.136</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>49190</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>10.160.179.105</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>53317</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>10.160.179.106</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>11542</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>10.160.179.107</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>24496</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>10.160.179.132</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>41952</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>10.160.179.145</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>34652</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>10.160.179.116</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>144038</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>10.160.179.126</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>62991</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>10.160.179.125</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>23840</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>10.160.179.121</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>147488</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>10.160.179.124</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>110780</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>10.160.179.115</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>96506</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>10.160.52.203</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>735293</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>10.160.52.204</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>10.160.52.205</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>722063</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>10.160.52.206</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>59873</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>10.160.52.207</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>100585</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>10.160.52.208</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>305400</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>10.160.52.209</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>100893</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>10.160.52.211</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>116655</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>10.160.52.201</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>57350</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>10.160.52.202</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>28417</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>424414</v>
+        <v>427085</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142091</v>
+        <v>142727</v>
       </c>
     </row>
     <row r="4">
@@ -471,10 +471,8 @@
           <t>10.160.13.203</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
+      <c r="B4" t="n">
+        <v>122446</v>
       </c>
     </row>
     <row r="5">
@@ -484,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>192467</v>
+        <v>192871</v>
       </c>
     </row>
     <row r="6">
@@ -493,8 +491,10 @@
           <t>10.160.13.205</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>109207</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21784</v>
+        <v>23562</v>
       </c>
     </row>
     <row r="8">
@@ -513,10 +513,8 @@
           <t>10.160.13.207</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
+      <c r="B8" t="n">
+        <v>85211</v>
       </c>
     </row>
     <row r="9">
@@ -526,7 +524,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>159519</v>
+        <v>161413</v>
       </c>
     </row>
     <row r="10">
@@ -536,7 +534,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22408</v>
+        <v>24411</v>
       </c>
     </row>
     <row r="11">
@@ -546,7 +544,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10110</v>
+        <v>11004</v>
       </c>
     </row>
     <row r="12">
@@ -556,7 +554,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>102329</v>
+        <v>103454</v>
       </c>
     </row>
     <row r="13">
@@ -565,8 +563,10 @@
           <t>10.160.167.203</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>115126</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>119499</v>
+        <v>120010</v>
       </c>
     </row>
     <row r="16">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>119853</v>
+        <v>120228</v>
       </c>
     </row>
     <row r="17">
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>174506</v>
+        <v>176228</v>
       </c>
     </row>
     <row r="18">
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>315106</v>
+        <v>318405</v>
       </c>
     </row>
     <row r="19">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94521</v>
+        <v>97387</v>
       </c>
     </row>
     <row r="20">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>268871</v>
+        <v>271728</v>
       </c>
     </row>
     <row r="22">
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>227784</v>
+        <v>231876</v>
       </c>
     </row>
     <row r="23">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>17869</v>
+        <v>18139</v>
       </c>
     </row>
     <row r="24">
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>68086</v>
+        <v>68350</v>
       </c>
     </row>
     <row r="25">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>27893</v>
+        <v>29118</v>
       </c>
     </row>
     <row r="27">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>128172</v>
+        <v>128797</v>
       </c>
     </row>
     <row r="28">
@@ -721,8 +721,10 @@
           <t>10.160.38.207</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>139550</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -732,7 +734,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>684837</v>
+        <v>686752</v>
       </c>
     </row>
     <row r="30">
@@ -742,7 +744,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>209609</v>
+        <v>211455</v>
       </c>
     </row>
     <row r="31">
@@ -752,7 +754,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111664</v>
+        <v>112567</v>
       </c>
     </row>
     <row r="32">
@@ -762,7 +764,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>225394</v>
+        <v>226917</v>
       </c>
     </row>
     <row r="33">
@@ -772,7 +774,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>135740</v>
+        <v>137424</v>
       </c>
     </row>
     <row r="34">
@@ -782,7 +784,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>116821</v>
+        <v>123159</v>
       </c>
     </row>
     <row r="35">
@@ -792,7 +794,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>255013</v>
+        <v>257687</v>
       </c>
     </row>
     <row r="36">
@@ -801,10 +803,8 @@
           <t>10.160.43.204</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
+      <c r="B36" t="n">
+        <v>379759</v>
       </c>
     </row>
     <row r="37">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>160105</v>
+        <v>161014</v>
       </c>
     </row>
     <row r="38">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>359342</v>
+        <v>361516</v>
       </c>
     </row>
     <row r="39">
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>35501</v>
+        <v>37242</v>
       </c>
     </row>
     <row r="40">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6824</v>
+        <v>7161</v>
       </c>
     </row>
     <row r="41">
@@ -854,7 +854,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7594</v>
+        <v>7962</v>
       </c>
     </row>
     <row r="42">
@@ -864,7 +864,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>144153</v>
+        <v>144344</v>
       </c>
     </row>
     <row r="43">
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>94873</v>
+        <v>95732</v>
       </c>
     </row>
     <row r="44">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>339120</v>
+        <v>341494</v>
       </c>
     </row>
     <row r="45">
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>10892</v>
+        <v>11067</v>
       </c>
     </row>
     <row r="46">
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>49576</v>
+        <v>49785</v>
       </c>
     </row>
     <row r="47">
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>111695</v>
+        <v>112275</v>
       </c>
     </row>
     <row r="48">
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>109042</v>
+        <v>109326</v>
       </c>
     </row>
     <row r="49">
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>201542</v>
+        <v>203754</v>
       </c>
     </row>
     <row r="50">
@@ -944,7 +944,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>81291</v>
+        <v>81763</v>
       </c>
     </row>
     <row r="51">
@@ -954,7 +954,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>113028</v>
+        <v>113669</v>
       </c>
     </row>
     <row r="52">
@@ -964,7 +964,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>37676</v>
+        <v>38662</v>
       </c>
     </row>
     <row r="53">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>39068</v>
+        <v>39308</v>
       </c>
     </row>
     <row r="54">
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>214290</v>
+        <v>215560</v>
       </c>
     </row>
     <row r="56">
@@ -1003,8 +1003,10 @@
           <t>10.160.66.204</t>
         </is>
       </c>
-      <c r="B56" t="n">
-        <v>54878</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -1014,7 +1016,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>261918</v>
+        <v>263676</v>
       </c>
     </row>
     <row r="58">
@@ -1024,7 +1026,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>57101</v>
+        <v>57883</v>
       </c>
     </row>
     <row r="59">
@@ -1034,7 +1036,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>56017</v>
+        <v>57311</v>
       </c>
     </row>
     <row r="60">
@@ -1044,7 +1046,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>324776</v>
+        <v>328283</v>
       </c>
     </row>
     <row r="61">
@@ -1064,7 +1066,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>118867</v>
+        <v>121931</v>
       </c>
     </row>
     <row r="63">
@@ -1086,7 +1088,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>303444</v>
+        <v>305136</v>
       </c>
     </row>
     <row r="65">
@@ -1096,7 +1098,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>605757</v>
+        <v>605997</v>
       </c>
     </row>
     <row r="66">
@@ -1106,7 +1108,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>81143</v>
+        <v>81556</v>
       </c>
     </row>
     <row r="67">
@@ -1150,7 +1152,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>37844</v>
+        <v>37887</v>
       </c>
     </row>
     <row r="71">
@@ -1160,7 +1162,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>82174</v>
+        <v>82503</v>
       </c>
     </row>
     <row r="72">
@@ -1170,7 +1172,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>927921</v>
+        <v>928689</v>
       </c>
     </row>
     <row r="73">
@@ -1192,7 +1194,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>144923</v>
+        <v>145146</v>
       </c>
     </row>
     <row r="75">
@@ -1213,8 +1215,10 @@
           <t>10.160.179.133</t>
         </is>
       </c>
-      <c r="B76" t="n">
-        <v>104654</v>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -1236,7 +1240,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>32196</v>
+        <v>32419</v>
       </c>
     </row>
     <row r="79">
@@ -1246,7 +1250,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>412880</v>
+        <v>413701</v>
       </c>
     </row>
     <row r="80">
@@ -1268,7 +1272,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>187785</v>
+        <v>189049</v>
       </c>
     </row>
     <row r="82">
@@ -1288,7 +1292,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>45367</v>
+        <v>45589</v>
       </c>
     </row>
     <row r="84">
@@ -1310,7 +1314,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>56251</v>
+        <v>56376</v>
       </c>
     </row>
     <row r="86">
@@ -1320,7 +1324,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>129332</v>
+        <v>131041</v>
       </c>
     </row>
     <row r="87">
@@ -1330,7 +1334,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>100865</v>
+        <v>102430</v>
       </c>
     </row>
     <row r="88">
@@ -1352,7 +1356,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>96383</v>
+        <v>96914</v>
       </c>
     </row>
     <row r="90">
@@ -1362,7 +1366,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>90527</v>
+        <v>91215</v>
       </c>
     </row>
     <row r="91">
@@ -1372,7 +1376,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>56382</v>
+        <v>56787</v>
       </c>
     </row>
     <row r="92">
@@ -1381,8 +1385,10 @@
           <t>10.160.179.104</t>
         </is>
       </c>
-      <c r="B92" t="n">
-        <v>26603</v>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
       </c>
     </row>
     <row r="93">
@@ -1392,7 +1398,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>49190</v>
+        <v>49953</v>
       </c>
     </row>
     <row r="94">
@@ -1402,7 +1408,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>53317</v>
+        <v>55457</v>
       </c>
     </row>
     <row r="95">
@@ -1412,7 +1418,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>11542</v>
+        <v>11707</v>
       </c>
     </row>
     <row r="96">
@@ -1422,7 +1428,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>24496</v>
+        <v>24766</v>
       </c>
     </row>
     <row r="97">
@@ -1432,7 +1438,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>41952</v>
+        <v>44129</v>
       </c>
     </row>
     <row r="98">
@@ -1441,8 +1447,10 @@
           <t>10.160.179.145</t>
         </is>
       </c>
-      <c r="B98" t="n">
-        <v>34652</v>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
       </c>
     </row>
     <row r="99">
@@ -1452,7 +1460,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>144038</v>
+        <v>144214</v>
       </c>
     </row>
     <row r="100">
@@ -1462,7 +1470,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>62991</v>
+        <v>63322</v>
       </c>
     </row>
     <row r="101">
@@ -1472,7 +1480,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>23840</v>
+        <v>113714</v>
       </c>
     </row>
     <row r="102">
@@ -1482,7 +1490,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>147488</v>
+        <v>149304</v>
       </c>
     </row>
     <row r="103">
@@ -1492,7 +1500,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>110780</v>
+        <v>110786</v>
       </c>
     </row>
     <row r="104">
@@ -1512,7 +1520,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>735293</v>
+        <v>737202</v>
       </c>
     </row>
     <row r="106">
@@ -1534,7 +1542,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>722063</v>
+        <v>724279</v>
       </c>
     </row>
     <row r="108">
@@ -1544,7 +1552,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>59873</v>
+        <v>60045</v>
       </c>
     </row>
     <row r="109">
@@ -1554,7 +1562,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>100585</v>
+        <v>101647</v>
       </c>
     </row>
     <row r="110">
@@ -1564,7 +1572,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>305400</v>
+        <v>307200</v>
       </c>
     </row>
     <row r="111">
@@ -1574,7 +1582,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>100893</v>
+        <v>101535</v>
       </c>
     </row>
     <row r="112">
@@ -1584,7 +1592,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>116655</v>
+        <v>117348</v>
       </c>
     </row>
     <row r="113">
@@ -1604,7 +1612,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>28417</v>
+        <v>28477</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>427085</v>
+        <v>432771</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142727</v>
+        <v>146495</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>122446</v>
+        <v>124114</v>
       </c>
     </row>
     <row r="5">
@@ -481,8 +481,10 @@
           <t>10.160.13.204</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>192871</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -504,7 +506,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23562</v>
+        <v>26550</v>
       </c>
     </row>
     <row r="8">
@@ -513,8 +515,10 @@
           <t>10.160.13.207</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>85211</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -524,7 +528,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>161413</v>
+        <v>166553</v>
       </c>
     </row>
     <row r="10">
@@ -534,7 +538,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24411</v>
+        <v>29464</v>
       </c>
     </row>
     <row r="11">
@@ -544,7 +548,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11004</v>
+        <v>12310</v>
       </c>
     </row>
     <row r="12">
@@ -554,7 +558,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>103454</v>
+        <v>105601</v>
       </c>
     </row>
     <row r="13">
@@ -563,10 +567,8 @@
           <t>10.160.167.203</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
+      <c r="B13" t="n">
+        <v>119359</v>
       </c>
     </row>
     <row r="14">
@@ -575,10 +577,8 @@
           <t>10.160.167.204</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
+      <c r="B14" t="n">
+        <v>44677</v>
       </c>
     </row>
     <row r="15">
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>120010</v>
+        <v>121771</v>
       </c>
     </row>
     <row r="16">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>120228</v>
+        <v>121271</v>
       </c>
     </row>
     <row r="17">
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>176228</v>
+        <v>177701</v>
       </c>
     </row>
     <row r="18">
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>318405</v>
+        <v>329945</v>
       </c>
     </row>
     <row r="19">
@@ -628,379 +628,389 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97387</v>
+        <v>105327</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>10.160.179.147</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
+          <t>10.160.179.100</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>30343</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>10.160.179.148</t>
+          <t>10.160.179.103</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>271728</v>
+        <v>58328</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>10.160.179.149</t>
+          <t>10.160.179.104</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>231876</v>
+        <v>26774</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>10.160.183.201</t>
+          <t>10.160.179.105</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>18139</v>
+        <v>63156</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>10.160.183.202</t>
+          <t>10.160.179.106</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>68350</v>
+        <v>12315</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>10.160.184.199</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
+          <t>10.160.179.107</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>25160</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>10.160.184.200</t>
+          <t>10.160.179.108</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>29118</v>
+        <v>134746</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>10.160.38.204</t>
+          <t>10.160.179.109</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>128797</v>
+        <v>309658</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>10.160.38.207</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
+          <t>10.160.179.110</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>84177</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>10.160.38.209</t>
+          <t>10.160.179.111</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>686752</v>
+        <v>46248</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>10.160.38.210</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>211455</v>
+          <t>10.160.179.112</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>10.160.38.211</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>112567</v>
+          <t>10.160.179.113</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>10.160.38.212</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>226917</v>
+          <t>10.160.179.115</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>10.160.38.213</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>137424</v>
+          <t>10.160.179.116</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>10.160.38.214</t>
+          <t>10.160.179.118</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>123159</v>
+        <v>93795</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>10.160.43.203</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>257687</v>
+          <t>10.160.179.119</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>10.160.43.204</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>379759</v>
+          <t>10.160.179.120</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>10.160.43.205</t>
+          <t>10.160.179.121</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>161014</v>
+        <v>157047</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>10.160.43.206</t>
+          <t>10.160.179.123</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>361516</v>
+        <v>70003</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>10.160.43.207</t>
+          <t>10.160.179.124</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>37242</v>
+        <v>110817</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>10.160.43.208</t>
+          <t>10.160.179.125</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>7161</v>
+        <v>114028</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>10.160.43.209</t>
+          <t>10.160.179.126</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7962</v>
+        <v>65565</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>10.160.57.202</t>
+          <t>10.160.179.127</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>144344</v>
+        <v>195462</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>10.160.57.203</t>
+          <t>10.160.179.128</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95732</v>
+        <v>33264</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>10.160.57.204</t>
+          <t>10.160.179.132</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>341494</v>
+        <v>51463</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>10.160.57.205</t>
+          <t>10.160.179.133</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>11067</v>
+        <v>110169</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>10.160.57.208</t>
+          <t>10.160.179.134</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>49785</v>
+        <v>38113</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>10.160.57.209</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>112275</v>
+          <t>10.160.179.135</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>10.160.57.210</t>
+          <t>10.160.179.136</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>109326</v>
+        <v>52312</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>10.160.57.211</t>
+          <t>10.160.179.138</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>203754</v>
+        <v>142161</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>10.160.57.212</t>
+          <t>10.160.179.139</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>81763</v>
+        <v>82697</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>10.160.57.213</t>
+          <t>10.160.179.140</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>113669</v>
+        <v>6533</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>10.160.57.214</t>
+          <t>10.160.179.141</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>38662</v>
+        <v>145278</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>10.160.66.201</t>
+          <t>10.160.179.142</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>39308</v>
+        <v>98639</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>10.160.66.202</t>
+          <t>10.160.179.143</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3507</v>
+        <v>46360</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>10.160.66.203</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>215560</v>
+          <t>10.160.179.144</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>10.160.66.204</t>
+          <t>10.160.179.145</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1012,173 +1022,171 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>10.160.66.205</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>263676</v>
+          <t>10.160.179.146</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>10.160.66.206</t>
+          <t>10.160.179.148</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>57883</v>
+        <v>278515</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>10.160.66.208</t>
+          <t>10.160.179.149</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>57311</v>
+        <v>240946</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>10.160.66.211</t>
+          <t>10.160.183.201</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>328283</v>
+        <v>19425</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>10.160.66.212</t>
+          <t>10.160.183.202</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>52810</v>
+        <v>69441</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>10.160.66.213</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>121931</v>
+          <t>10.160.184.199</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>10.20.0.104</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
+          <t>10.160.184.200</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>32989</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>10.160.179.109</t>
+          <t>10.160.38.204</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>305136</v>
+        <v>129877</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>10.160.179.146</t>
+          <t>10.160.38.207</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>605997</v>
+        <v>142166</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>10.160.179.139</t>
+          <t>10.160.38.209</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>81556</v>
+        <v>693340</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>10.20.0.115</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
+          <t>10.160.38.210</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>215179</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>10.20.0.150</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
+          <t>10.160.38.211</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>115882</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>10.160.179.111</t>
+          <t>10.160.38.212</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>46244</v>
+        <v>230838</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>10.160.179.134</t>
+          <t>10.160.38.213</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>37887</v>
+        <v>146184</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>10.160.179.110</t>
+          <t>10.160.38.214</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>82503</v>
+        <v>136460</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>10.160.179.120</t>
+          <t>10.160.43.203</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>928689</v>
+        <v>261787</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>10.160.179.135</t>
+          <t>10.160.43.204</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1190,261 +1198,251 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>10.160.179.141</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>145146</v>
+          <t>10.160.43.205</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>10.160.179.130</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
+          <t>10.160.43.206</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>366671</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>10.160.179.133</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
+          <t>10.160.43.207</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>39870</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>10.160.179.123</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
+          <t>10.160.43.208</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>8323</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>10.160.179.128</t>
+          <t>10.160.43.209</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>32419</v>
+        <v>10434</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>10.160.179.119</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>413701</v>
+          <t>10.160.57.202</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>10.20.0.227</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
+          <t>10.160.57.203</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>97418</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>10.160.179.127</t>
+          <t>10.160.57.204</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>189049</v>
+        <v>347362</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>10.160.179.112</t>
+          <t>10.160.57.205</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>58164</v>
+        <v>12274</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>10.160.179.143</t>
+          <t>10.160.57.208</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>45589</v>
+        <v>50484</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>10.20.0.234</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
+          <t>10.160.57.209</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>114701</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>10.160.179.113</t>
+          <t>10.160.57.210</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>56376</v>
+        <v>113308</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>10.160.179.108</t>
+          <t>10.160.57.211</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>131041</v>
+        <v>213313</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>10.160.179.144</t>
+          <t>10.160.57.212</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>102430</v>
+        <v>83460</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>10.20.0.83</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
+          <t>10.160.57.213</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>114856</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>10.160.179.142</t>
+          <t>10.160.57.214</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>96914</v>
+        <v>39922</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>10.160.179.118</t>
+          <t>10.160.66.201</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>91215</v>
+        <v>39578</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>10.160.179.103</t>
+          <t>10.160.66.202</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>56787</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>10.160.179.104</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
+          <t>10.160.66.203</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>218525</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>10.160.179.136</t>
+          <t>10.160.66.204</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>49953</v>
+        <v>56113</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>10.160.179.105</t>
+          <t>10.160.66.205</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>55457</v>
+        <v>268820</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>10.160.179.106</t>
+          <t>10.160.66.206</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>11707</v>
+        <v>60455</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>10.160.179.107</t>
+          <t>10.160.66.208</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>24766</v>
+        <v>61368</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>10.160.179.132</t>
+          <t>10.160.66.211</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>44129</v>
+        <v>334178</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>10.160.179.145</t>
+          <t>10.160.66.212</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1456,163 +1454,113 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>10.160.179.116</t>
+          <t>10.160.66.213</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>144214</v>
+        <v>130031</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>10.160.179.126</t>
+          <t>10.160.71.211</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>63322</v>
+        <v>28753</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>10.160.179.125</t>
+          <t>10.160.71.212</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>113714</v>
+        <v>740683</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>10.160.179.121</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>149304</v>
+          <t>10.160.71.213</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>10.160.179.124</t>
+          <t>10.160.71.214</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>110786</v>
+        <v>726692</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>10.160.179.115</t>
+          <t>10.160.71.215</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>96506</v>
+        <v>61157</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>10.160.52.203</t>
+          <t>10.160.71.216</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>737202</v>
+        <v>103191</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>10.160.52.204</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
+          <t>10.160.71.217</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>312859</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>10.160.52.205</t>
+          <t>10.160.71.218</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>724279</v>
+        <v>104111</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>10.160.52.206</t>
+          <t>10.160.71.220</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>60045</v>
+        <v>118759</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>10.160.52.207</t>
+          <t>10.160.71.221</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>101647</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>10.160.52.208</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>307200</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>10.160.52.209</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>101535</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>10.160.52.211</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>117348</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>10.160.52.201</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>57350</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>10.160.52.202</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>28477</v>
+        <v>62300</v>
       </c>
     </row>
   </sheetData>
